--- a/biology/Botanique/Atropa/Atropa.xlsx
+++ b/biology/Botanique/Atropa/Atropa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atropa est un genre de plantes de la famille des Solanaceae, qui comprend une douzaine d'espèces des régions tempérées et tropicales de l'Ancien monde. La plus connue est la Belladone (Atropa belladonna). 
 Le nom du genre dérive de celui d'une des trois Parques (ατροπος, Atropos, inflexible), celle qui coupait le fil de la vie.
@@ -516,15 +528,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon NCBI  (3 févr. 2012)[1]
-Atropa acuminata
+          <t>Selon NCBI  (3 févr. 2012)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Atropa acuminata
 Atropa baetica
 Atropa belladonna
 Atropa caucasica
 Atropa komarovii
-Atropa pallidiflora
-Selon ITIS      (3 févr. 2012)[2]
-Atropa bella-donna L.</t>
+Atropa pallidiflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atropa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atropa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (3 févr. 2012)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Atropa bella-donna L.</t>
         </is>
       </c>
     </row>
